--- a/Copy of CLASIF pt -CS.xlsx
+++ b/Copy of CLASIF pt -CS.xlsx
@@ -2,19 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7C740D-EE08-4241-8AC4-D7C445E9ED9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BD79AF-F78D-46D9-AC3E-F0317E5841B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75430605-132C-45C0-8C01-48018976FADC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{75430605-132C-45C0-8C01-48018976FADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FilteredData" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$E$81</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="117">
   <si>
     <t>Educaţie</t>
   </si>
@@ -806,22 +811,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358F5DFB-B595-412F-AE3C-D7C6894C3EDA}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="86" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>111</v>
       </c>
@@ -838,7 +844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -846,7 +852,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -857,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -868,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -879,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -890,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>21</v>
       </c>
@@ -901,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -912,7 +918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -923,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -934,7 +940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -945,7 +951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -956,7 +962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>22</v>
       </c>
@@ -967,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -978,7 +984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -989,7 +995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>32</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>40</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>41</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>42</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>50</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>51</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>52</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>53</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>54</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>61</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>7</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>71</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>72</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>73</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>8</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>81</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>82</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -1539,7 +1545,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>84</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>91</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>10</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>100</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>101</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>103</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>104</v>
       </c>
@@ -1717,4 +1723,1408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E366202-6928-4FF4-AAC5-767E03B533C5}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147759C5-B76D-4499-A32F-3E3FEFE13685}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>73</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>81</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>84</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>91</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>100</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>101</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>103</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>104</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Copy of CLASIF pt -CS.xlsx
+++ b/Copy of CLASIF pt -CS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BD79AF-F78D-46D9-AC3E-F0317E5841B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE0713-A2A6-4F6F-96D3-1A6A3328A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{75430605-132C-45C0-8C01-48018976FADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="FilteredData" sheetId="4" r:id="rId2"/>
+    <sheet name="FilteredData" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -815,7 +815,7 @@
   <dimension ref="A3:E83"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E83"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,19 +1726,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E366202-6928-4FF4-AAC5-767E03B533C5}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A960D8D3-1217-4A58-B885-20112914D2FF}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
